--- a/artfynd/A 8576-2021.xlsx
+++ b/artfynd/A 8576-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY28"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4003,6 +4003,220 @@
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112526400</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89551</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1110</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tallharticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pelloporus triqueter</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Pers.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Stackmossen 500m Ö om, Sm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>557833</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6272869</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Mortorp</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>inga nya fruktkroppar</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112521407</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90169</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Stackmossen 500m Ö om, Sm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>557833</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6272869</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Mortorp</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Alexander Singer</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
